--- a/Algae_Nh4.xlsx
+++ b/Algae_Nh4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\PreliminaryExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="53A6332AF2EA3778FFAF18D3A7445B6AD0BA85AA" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{C0DE133B-F4BD-40EE-B6A8-718E921A5C51}"/>
+  <xr:revisionPtr revIDLastSave="1605" documentId="53A6332AF2EA3778FFAF18D3A7445B6AD0BA85AA" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{88CD92C7-0971-4CD6-841B-28BE5E6B84F1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14010" xr2:uid="{CFC48802-49D4-42A1-B9E1-6D1AF5DD203D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Jan_29_2018</t>
+  </si>
+  <si>
+    <t>Jan_30_2018</t>
+  </si>
+  <si>
+    <t>Feb_5_2018</t>
+  </si>
+  <si>
+    <t>Feb_6_2018</t>
   </si>
 </sst>
 </file>
@@ -435,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7619C17-7071-4449-95E1-F9CBB908EE4E}">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3279,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3321,8 +3330,29 @@
       <c r="I82">
         <v>22.51</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="K82">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="L82" s="2">
+        <v>22</v>
+      </c>
+      <c r="M82">
+        <v>8.4</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="O82">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
       <c r="B83">
         <v>14</v>
       </c>
@@ -3344,8 +3374,29 @@
       <c r="I83">
         <v>38.630000000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K83">
+        <v>-0.316</v>
+      </c>
+      <c r="L83" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M83">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="O83">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
       <c r="B84">
         <v>17</v>
       </c>
@@ -3367,8 +3418,29 @@
       <c r="I84">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="K84">
+        <v>102.2</v>
+      </c>
+      <c r="L84" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M84">
+        <v>8.4</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="O84">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
       <c r="B85">
         <v>25</v>
       </c>
@@ -3390,8 +3462,29 @@
       <c r="I85">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="K85">
+        <v>107.3</v>
+      </c>
+      <c r="L85" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M85">
+        <v>8.4</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="O85">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
       <c r="B86">
         <v>33</v>
       </c>
@@ -3413,8 +3506,29 @@
       <c r="I86">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="1">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="K86">
+        <v>101.9</v>
+      </c>
+      <c r="L86" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M86">
+        <v>8.4</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="O86">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
       <c r="B87">
         <v>15</v>
       </c>
@@ -3436,8 +3550,29 @@
       <c r="I87">
         <v>22.37</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="K87">
+        <v>0.315</v>
+      </c>
+      <c r="L87" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M87">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="O87">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
       <c r="B88">
         <v>22</v>
       </c>
@@ -3459,8 +3594,29 @@
       <c r="I88">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="K88">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L88" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M88">
+        <v>8.4</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="O88">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
       <c r="B89">
         <v>26</v>
       </c>
@@ -3482,8 +3638,29 @@
       <c r="I89">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="1">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="K89">
+        <v>106.1</v>
+      </c>
+      <c r="L89" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M89">
+        <v>8.4</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="O89">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
       <c r="B90">
         <v>34</v>
       </c>
@@ -3505,8 +3682,29 @@
       <c r="I90">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="K90">
+        <v>100.7</v>
+      </c>
+      <c r="L90" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M90">
+        <v>8.4</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="O90">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
       <c r="B91">
         <v>1</v>
       </c>
@@ -3528,8 +3726,29 @@
       <c r="I91">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="K91">
+        <v>109.5</v>
+      </c>
+      <c r="L91" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M91">
+        <v>8.4</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="O91">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
       <c r="B92">
         <v>23</v>
       </c>
@@ -3551,8 +3770,29 @@
       <c r="I92">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="K92">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>22</v>
+      </c>
+      <c r="M92">
+        <v>8.5</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="O92">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
       <c r="B93">
         <v>30</v>
       </c>
@@ -3574,8 +3814,29 @@
       <c r="I93">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="K93">
+        <v>-0.155</v>
+      </c>
+      <c r="L93" s="2">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>8.4</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="O93">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
       <c r="B94">
         <v>35</v>
       </c>
@@ -3597,8 +3858,29 @@
       <c r="I94">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="K94">
+        <v>104</v>
+      </c>
+      <c r="L94" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M94">
+        <v>8.4</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="O94">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
       <c r="B95">
         <v>2</v>
       </c>
@@ -3620,8 +3902,29 @@
       <c r="I95">
         <v>7.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="K95">
+        <v>109</v>
+      </c>
+      <c r="L95" s="2">
+        <v>22</v>
+      </c>
+      <c r="M95">
+        <v>8.4</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O95">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
       <c r="B96">
         <v>9</v>
       </c>
@@ -3643,8 +3946,29 @@
       <c r="I96">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="K96">
+        <v>107.5</v>
+      </c>
+      <c r="L96" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M96">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="O96">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
       <c r="B97">
         <v>31</v>
       </c>
@@ -3666,8 +3990,29 @@
       <c r="I97">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="K97">
+        <v>-0.188</v>
+      </c>
+      <c r="L97" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="M97">
+        <v>8.4</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="O97">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
       <c r="B98">
         <v>38</v>
       </c>
@@ -3689,8 +4034,29 @@
       <c r="I98">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="K98">
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="L98" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M98">
+        <v>8.4</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="O98">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
       <c r="B99">
         <v>3</v>
       </c>
@@ -3712,8 +4078,29 @@
       <c r="I99">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="1">
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="K99">
+        <v>104.9</v>
+      </c>
+      <c r="L99" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M99">
+        <v>8.4</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="O99">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
       <c r="B100">
         <v>10</v>
       </c>
@@ -3735,8 +4122,29 @@
       <c r="I100">
         <v>11.67</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="K100">
+        <v>129.5</v>
+      </c>
+      <c r="L100" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M100">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="O100">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
       <c r="B101">
         <v>18</v>
       </c>
@@ -3758,8 +4166,29 @@
       <c r="I101">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="K101">
+        <v>100.2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>22</v>
+      </c>
+      <c r="M101">
+        <v>8.4</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="O101">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
       <c r="B102">
         <v>39</v>
       </c>
@@ -3781,8 +4210,29 @@
       <c r="I102">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="K102">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="L102" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M102">
+        <v>8.4</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="O102">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
       <c r="B103">
         <v>7</v>
       </c>
@@ -3804,8 +4254,29 @@
       <c r="I103">
         <v>10.62</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="K103">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M103">
+        <v>8.4</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="O103">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
       <c r="B104">
         <v>11</v>
       </c>
@@ -3827,8 +4298,29 @@
       <c r="I104">
         <v>14.17</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="K104">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="L104" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M104">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="O104">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
       <c r="B105">
         <v>19</v>
       </c>
@@ -3850,8 +4342,29 @@
       <c r="I105">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="K105">
+        <v>110.8</v>
+      </c>
+      <c r="L105" s="2">
+        <v>22</v>
+      </c>
+      <c r="M105">
+        <v>8.4</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="O105">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
       <c r="B106">
         <v>27</v>
       </c>
@@ -3873,8 +4386,29 @@
       <c r="I106">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="K106">
+        <v>110.7</v>
+      </c>
+      <c r="L106" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M106">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="O106">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
       <c r="B107">
         <v>8</v>
       </c>
@@ -3896,8 +4430,29 @@
       <c r="I107">
         <v>10.69</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="1">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="K107">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="L107" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="M107">
+        <v>8.4</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="O107">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
       <c r="B108">
         <v>12</v>
       </c>
@@ -3919,8 +4474,29 @@
       <c r="I108">
         <v>14.71</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="K108">
+        <v>102.3</v>
+      </c>
+      <c r="L108" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M108">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="O108">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
       <c r="B109">
         <v>24</v>
       </c>
@@ -3942,8 +4518,29 @@
       <c r="I109">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1">
+        <v>0.69513888888888886</v>
+      </c>
+      <c r="K109">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="L109" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M109">
+        <v>8.4</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="O109">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
       <c r="B110">
         <v>28</v>
       </c>
@@ -3965,8 +4562,29 @@
       <c r="I110">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="1">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="K110">
+        <v>98.02</v>
+      </c>
+      <c r="L110" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M110">
+        <v>8.4</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="O110">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
       <c r="B111">
         <v>36</v>
       </c>
@@ -3988,8 +4606,29 @@
       <c r="I111">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="1">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="K111">
+        <v>102.8</v>
+      </c>
+      <c r="L111" s="2">
+        <v>22</v>
+      </c>
+      <c r="M111">
+        <v>8.4</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="O111">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
       <c r="B112">
         <v>13</v>
       </c>
@@ -4011,8 +4650,29 @@
       <c r="I112">
         <v>15.51</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="K112">
+        <v>123.3</v>
+      </c>
+      <c r="L112" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="M112">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O112">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
       <c r="B113">
         <v>20</v>
       </c>
@@ -4034,8 +4694,29 @@
       <c r="I113">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="K113">
+        <v>116.1</v>
+      </c>
+      <c r="L113" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M113">
+        <v>8.4</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="O113">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
       <c r="B114">
         <v>32</v>
       </c>
@@ -4057,8 +4738,29 @@
       <c r="I114">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="1">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="K114">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="L114" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="M114">
+        <v>8.4</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="O114">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
       <c r="B115">
         <v>37</v>
       </c>
@@ -4080,8 +4782,29 @@
       <c r="I115">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="K115">
+        <v>104.6</v>
+      </c>
+      <c r="L115" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M115">
+        <v>8.4</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="O115">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
       <c r="B116">
         <v>4</v>
       </c>
@@ -4103,8 +4826,29 @@
       <c r="I116">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="K116">
+        <v>128.4</v>
+      </c>
+      <c r="L116" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="M116">
+        <v>8.4</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="O116">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
       <c r="B117">
         <v>21</v>
       </c>
@@ -4126,8 +4870,29 @@
       <c r="I117">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="1">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="K117">
+        <v>112.3</v>
+      </c>
+      <c r="L117" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="M117">
+        <v>8.4</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="O117">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
       <c r="B118">
         <v>29</v>
       </c>
@@ -4149,8 +4914,29 @@
       <c r="I118">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="K118">
+        <v>113</v>
+      </c>
+      <c r="L118" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="M118">
+        <v>8.4</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="O118">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
       <c r="B119">
         <v>40</v>
       </c>
@@ -4172,8 +4958,29 @@
       <c r="I119">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="K119">
+        <v>-0.155</v>
+      </c>
+      <c r="L119" s="2">
+        <v>21.74</v>
+      </c>
+      <c r="M119">
+        <v>8.4</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="O119">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
       <c r="B120">
         <v>5</v>
       </c>
@@ -4194,6 +5001,3812 @@
       </c>
       <c r="I120">
         <v>5.23</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="K120">
+        <v>121</v>
+      </c>
+      <c r="L120" s="2">
+        <v>22</v>
+      </c>
+      <c r="M120">
+        <v>8.4</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="O120">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E121">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="F121">
+        <v>21.3</v>
+      </c>
+      <c r="G121">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="I121">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E122">
+        <v>120.7</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122">
+        <v>8.4</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I122">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="E123">
+        <v>111.1</v>
+      </c>
+      <c r="F123">
+        <v>21.7</v>
+      </c>
+      <c r="G123">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="I123">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="E124">
+        <v>113.9</v>
+      </c>
+      <c r="F124">
+        <v>21.3</v>
+      </c>
+      <c r="G124">
+        <v>8.4</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="I124">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="E125">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F125">
+        <v>20.9</v>
+      </c>
+      <c r="G125">
+        <v>8.4</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="I125">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126">
+        <v>22</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="E126">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F126">
+        <v>21.1</v>
+      </c>
+      <c r="G126">
+        <v>84</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="I126">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127">
+        <v>26</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E127">
+        <v>99.64</v>
+      </c>
+      <c r="F127">
+        <v>21.1</v>
+      </c>
+      <c r="G127">
+        <v>8.4</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I127">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>34</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="E128">
+        <v>102.4</v>
+      </c>
+      <c r="F128">
+        <v>21.1</v>
+      </c>
+      <c r="G128">
+        <v>8.4</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I128">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="E129">
+        <v>110.7</v>
+      </c>
+      <c r="F129">
+        <v>21.1</v>
+      </c>
+      <c r="G129">
+        <v>8.4</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="I129">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>23</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="E130">
+        <v>-0.124</v>
+      </c>
+      <c r="F130">
+        <v>20.9</v>
+      </c>
+      <c r="G130">
+        <v>8.5</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I130">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="E131">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="F131">
+        <v>21</v>
+      </c>
+      <c r="G131">
+        <v>8.4</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I131">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <v>35</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E132">
+        <v>100.7</v>
+      </c>
+      <c r="F132">
+        <v>21.1</v>
+      </c>
+      <c r="G132">
+        <v>8.4</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I132">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="E133">
+        <v>80.11</v>
+      </c>
+      <c r="F133">
+        <v>21.2</v>
+      </c>
+      <c r="G133">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="I133">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="E134">
+        <v>104.4</v>
+      </c>
+      <c r="F134">
+        <v>20.8</v>
+      </c>
+      <c r="G134">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="I134">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>31</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E135">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="F135">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>8.4</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I135">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>38</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="E136">
+        <v>-0.308</v>
+      </c>
+      <c r="F136">
+        <v>21.1</v>
+      </c>
+      <c r="G136">
+        <v>8.4</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="I136">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E137">
+        <v>101.7</v>
+      </c>
+      <c r="F137">
+        <v>21.2</v>
+      </c>
+      <c r="G137">
+        <v>8.4</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I137">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="E138">
+        <v>114.6</v>
+      </c>
+      <c r="F138">
+        <v>21.2</v>
+      </c>
+      <c r="G138">
+        <v>8.4</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="I138">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="E139">
+        <v>93.27</v>
+      </c>
+      <c r="F139">
+        <v>21.2</v>
+      </c>
+      <c r="G139">
+        <v>8.4</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="I139">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>39</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="E140">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="F140">
+        <v>20.9</v>
+      </c>
+      <c r="G140">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I140">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E141">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="F141">
+        <v>21.2</v>
+      </c>
+      <c r="G141">
+        <v>8.4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="I141">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E142">
+        <v>109</v>
+      </c>
+      <c r="F142">
+        <v>21.4</v>
+      </c>
+      <c r="G142">
+        <v>8.4</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="I142">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143">
+        <v>19</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="E143">
+        <v>88.57</v>
+      </c>
+      <c r="F143">
+        <v>21.4</v>
+      </c>
+      <c r="G143">
+        <v>8.4</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="I143">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>27</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="E144">
+        <v>114.9</v>
+      </c>
+      <c r="F144">
+        <v>21.4</v>
+      </c>
+      <c r="G144">
+        <v>8.4</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="I144">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="E145">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F145">
+        <v>20.7</v>
+      </c>
+      <c r="G145">
+        <v>8.5</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="I145">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="E146">
+        <v>111.1</v>
+      </c>
+      <c r="F146">
+        <v>21</v>
+      </c>
+      <c r="G146">
+        <v>8.4</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I146">
+        <v>16.43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E147">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="F147">
+        <v>21</v>
+      </c>
+      <c r="G147">
+        <v>8.4</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="I147">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E148">
+        <v>91.75</v>
+      </c>
+      <c r="F148">
+        <v>21.3</v>
+      </c>
+      <c r="G148">
+        <v>8.4</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="I148">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>36</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="E149">
+        <v>101</v>
+      </c>
+      <c r="F149">
+        <v>21.4</v>
+      </c>
+      <c r="G149">
+        <v>8.4</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="I149">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E150">
+        <v>125.7</v>
+      </c>
+      <c r="F150">
+        <v>20.8</v>
+      </c>
+      <c r="G150">
+        <v>8.4</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="I150">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E151">
+        <v>112</v>
+      </c>
+      <c r="F151">
+        <v>21.2</v>
+      </c>
+      <c r="G151">
+        <v>8.4</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="I151">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>32</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="E152">
+        <v>-0.25</v>
+      </c>
+      <c r="F152">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G152">
+        <v>8.5</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="I152">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>37</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="E153">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F153">
+        <v>22.2</v>
+      </c>
+      <c r="G153">
+        <v>8.4</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="I153">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="E154">
+        <v>23.71</v>
+      </c>
+      <c r="F154">
+        <v>20.6</v>
+      </c>
+      <c r="G154">
+        <v>8.4</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="I154">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>21</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E155">
+        <v>51.43</v>
+      </c>
+      <c r="F155">
+        <v>20.7</v>
+      </c>
+      <c r="G155">
+        <v>8.4</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I155">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>29</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="E156">
+        <v>79.73</v>
+      </c>
+      <c r="F156">
+        <v>20.6</v>
+      </c>
+      <c r="G156">
+        <v>8.4</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I156">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E157">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F157">
+        <v>20.6</v>
+      </c>
+      <c r="G157">
+        <v>8.4</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="I157">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="E158">
+        <v>54.16</v>
+      </c>
+      <c r="F158">
+        <v>20.8</v>
+      </c>
+      <c r="G158">
+        <v>8.4</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I158">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E159">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="F159">
+        <v>19.8</v>
+      </c>
+      <c r="G159">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I159">
+        <v>24.4</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="K159">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L159" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M159">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="O159">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E160">
+        <v>-0.188</v>
+      </c>
+      <c r="F160">
+        <v>20.2</v>
+      </c>
+      <c r="G160">
+        <v>8.4</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I160">
+        <v>22.92</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="K160">
+        <v>-0.113</v>
+      </c>
+      <c r="L160" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="M160">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N160" s="1">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="O160">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="E161">
+        <v>127</v>
+      </c>
+      <c r="F161">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G161">
+        <v>8.6</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="I161">
+        <v>1.47</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="K161">
+        <v>103.7</v>
+      </c>
+      <c r="L161" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="M161">
+        <v>8.6</v>
+      </c>
+      <c r="N161" s="1">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="O161">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162">
+        <v>25</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E162">
+        <v>114.9</v>
+      </c>
+      <c r="F162">
+        <v>19.8</v>
+      </c>
+      <c r="G162">
+        <v>8.5</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="I162">
+        <v>0.49</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K162">
+        <v>101.7</v>
+      </c>
+      <c r="L162" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="M162">
+        <v>8.5</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="O162">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>33</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E163">
+        <v>121.8</v>
+      </c>
+      <c r="F163">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G163">
+        <v>8.4</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="I163">
+        <v>2.65</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="K163">
+        <v>106.1</v>
+      </c>
+      <c r="L163" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="M163">
+        <v>8.4</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O163">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="E164">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="F164">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G164">
+        <v>8.4</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="I164">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="K164">
+        <v>-0.152</v>
+      </c>
+      <c r="L164" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="M164">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="O164">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165">
+        <v>22</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E165">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="F165">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G165">
+        <v>8.5</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="I165">
+        <v>2.04</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="K165">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="L165" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M165">
+        <v>8.4</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="O165">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>26</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E166">
+        <v>104.6</v>
+      </c>
+      <c r="F166">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G166">
+        <v>8.5</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="I166">
+        <v>0.53</v>
+      </c>
+      <c r="J166" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K166">
+        <v>107</v>
+      </c>
+      <c r="L166" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="M166">
+        <v>8.5</v>
+      </c>
+      <c r="N166" s="1">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="O166">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>34</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="E167">
+        <v>114.1</v>
+      </c>
+      <c r="F167">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G167">
+        <v>8.4</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I167">
+        <v>2.72</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="K167">
+        <v>101.8</v>
+      </c>
+      <c r="L167" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="M167">
+        <v>8.4</v>
+      </c>
+      <c r="N167" s="1">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="O167">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="E168">
+        <v>117.4</v>
+      </c>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="G168">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="I168">
+        <v>13.57</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="K168">
+        <v>114.5</v>
+      </c>
+      <c r="L168" s="2">
+        <v>20</v>
+      </c>
+      <c r="M168">
+        <v>8.4</v>
+      </c>
+      <c r="N168" s="1">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="O168">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169">
+        <v>23</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="E169">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="F169">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G169">
+        <v>8.5</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I169">
+        <v>2.52</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="K169">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="L169" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M169">
+        <v>8.5</v>
+      </c>
+      <c r="N169" s="1">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="O169">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170">
+        <v>30</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="E170">
+        <v>-0.316</v>
+      </c>
+      <c r="F170">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G170">
+        <v>8.5</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="I170">
+        <v>0.48</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="K170">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="L170" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M170">
+        <v>8.4</v>
+      </c>
+      <c r="N170" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="O170">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171">
+        <v>35</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E171">
+        <v>107.7</v>
+      </c>
+      <c r="F171">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G171">
+        <v>8.4</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="I171">
+        <v>2.75</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="K171">
+        <v>122.3</v>
+      </c>
+      <c r="L171" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M171">
+        <v>8.4</v>
+      </c>
+      <c r="N171" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="O171">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="E172">
+        <v>100.4</v>
+      </c>
+      <c r="F172">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G172">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="I172">
+        <v>13.69</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="K172">
+        <v>94.68</v>
+      </c>
+      <c r="L172" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="M172">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N172" s="1">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="O172">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>9</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E173">
+        <v>97.99</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173">
+        <v>8.4</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I173">
+        <v>5.95</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="K173">
+        <v>95.28</v>
+      </c>
+      <c r="L173" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="M173">
+        <v>8.4</v>
+      </c>
+      <c r="N173" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="O173">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174">
+        <v>31</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="E174">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="F174">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G174">
+        <v>8.5</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="I174">
+        <v>1.42</v>
+      </c>
+      <c r="J174" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="K174">
+        <v>0.03</v>
+      </c>
+      <c r="L174" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="M174">
+        <v>8.5</v>
+      </c>
+      <c r="N174" s="1">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="O174">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175">
+        <v>38</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="E175">
+        <v>-0.23</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175">
+        <v>8.4</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="I175">
+        <v>4.97</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="K175">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="L175" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M175">
+        <v>8.4</v>
+      </c>
+      <c r="N175" s="1">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="O175">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E176">
+        <v>111.2</v>
+      </c>
+      <c r="F176">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G176">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="I176">
+        <v>13.29</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="K176">
+        <v>107.5</v>
+      </c>
+      <c r="L176" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="M176">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N176" s="1">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="O176">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="E177">
+        <v>103.8</v>
+      </c>
+      <c r="F177">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G177">
+        <v>8.4</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="I177">
+        <v>6.28</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="K177">
+        <v>122.8</v>
+      </c>
+      <c r="L177" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M177">
+        <v>8.5</v>
+      </c>
+      <c r="N177" s="1">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="O177">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>18</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="E178">
+        <v>108.5</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178">
+        <v>8.5</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="I178">
+        <v>1.46</v>
+      </c>
+      <c r="J178" s="1">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="K178">
+        <v>112.4</v>
+      </c>
+      <c r="L178" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M178">
+        <v>8.5</v>
+      </c>
+      <c r="N178" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="O178">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179">
+        <v>39</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E179">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="F179">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G179">
+        <v>8.5</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I179">
+        <v>5.07</v>
+      </c>
+      <c r="J179" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="K179">
+        <v>-0.158</v>
+      </c>
+      <c r="L179" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="M179">
+        <v>8.4</v>
+      </c>
+      <c r="N179" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="O179">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E180">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="F180">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="I180">
+        <v>22.21</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="K180">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="L180" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="M180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N180" s="1">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="O180">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E181">
+        <v>114.4</v>
+      </c>
+      <c r="F181">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G181">
+        <v>8.4</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="I181">
+        <v>6.17</v>
+      </c>
+      <c r="J181" s="1">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="K181">
+        <v>112.3</v>
+      </c>
+      <c r="L181" s="2">
+        <v>21</v>
+      </c>
+      <c r="M181">
+        <v>8.4</v>
+      </c>
+      <c r="N181" s="1">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="O181">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182">
+        <v>19</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E182">
+        <v>97.86</v>
+      </c>
+      <c r="F182">
+        <v>20</v>
+      </c>
+      <c r="G182">
+        <v>8.5</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I182">
+        <v>1.45</v>
+      </c>
+      <c r="J182" s="1">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="K182">
+        <v>114.8</v>
+      </c>
+      <c r="L182" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="M182">
+        <v>8.5</v>
+      </c>
+      <c r="N182" s="1">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="O182">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183">
+        <v>27</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="E183">
+        <v>105.4</v>
+      </c>
+      <c r="F183">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G183">
+        <v>8.5</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="I183">
+        <v>0.53</v>
+      </c>
+      <c r="J183" s="1">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="K183">
+        <v>106.6</v>
+      </c>
+      <c r="L183" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M183">
+        <v>8.5</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="O183">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E184">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="F184">
+        <v>20</v>
+      </c>
+      <c r="G184">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I184">
+        <v>21.93</v>
+      </c>
+      <c r="J184" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="K184">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="L184" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="M184">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="O184">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="E185">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="F185">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G185">
+        <v>8.4</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="I185">
+        <v>9.59</v>
+      </c>
+      <c r="J185" s="1">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="K185">
+        <v>-0.187</v>
+      </c>
+      <c r="L185" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="M185">
+        <v>8.4</v>
+      </c>
+      <c r="N185" s="1">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="O185">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="E186">
+        <v>110.1</v>
+      </c>
+      <c r="F186">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G186">
+        <v>8.5</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I186">
+        <v>1.43</v>
+      </c>
+      <c r="J186" s="1">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="K186">
+        <v>107.8</v>
+      </c>
+      <c r="L186" s="2">
+        <v>21</v>
+      </c>
+      <c r="M186">
+        <v>8.5</v>
+      </c>
+      <c r="N186" s="1">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="O186">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <v>28</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="E187">
+        <v>111.3</v>
+      </c>
+      <c r="F187">
+        <v>20.2</v>
+      </c>
+      <c r="G187">
+        <v>8.5</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="I187">
+        <v>0.5</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="K187">
+        <v>114</v>
+      </c>
+      <c r="L187" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="O187">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188">
+        <v>36</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E188">
+        <v>101.6</v>
+      </c>
+      <c r="F188">
+        <v>20.3</v>
+      </c>
+      <c r="G188">
+        <v>8.4</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="I188">
+        <v>2.74</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="K188">
+        <v>114.3</v>
+      </c>
+      <c r="L188" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M188">
+        <v>8.4</v>
+      </c>
+      <c r="N188" s="1">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="O188">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="E189">
+        <v>113</v>
+      </c>
+      <c r="F189">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G189">
+        <v>8.4</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I189">
+        <v>5.89</v>
+      </c>
+      <c r="J189" s="1">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="K189">
+        <v>110.9</v>
+      </c>
+      <c r="L189" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="M189">
+        <v>8.5</v>
+      </c>
+      <c r="N189" s="1">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="O189">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190">
+        <v>24</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="E190">
+        <v>-0.108</v>
+      </c>
+      <c r="F190">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G190">
+        <v>8.5</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="I190">
+        <v>1.99</v>
+      </c>
+      <c r="J190" s="1">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="K190">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L190" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="M190">
+        <v>8.4</v>
+      </c>
+      <c r="N190" s="1">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="O190">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E191">
+        <v>-0.185</v>
+      </c>
+      <c r="F191">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G191">
+        <v>8.5</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I191">
+        <v>0.46</v>
+      </c>
+      <c r="J191" s="1">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="K191">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="L191" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="M191">
+        <v>8.4</v>
+      </c>
+      <c r="N191" s="1">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="O191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192">
+        <v>37</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E192">
+        <v>106.4</v>
+      </c>
+      <c r="F192">
+        <v>20.3</v>
+      </c>
+      <c r="G192">
+        <v>8.5</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="I192">
+        <v>2.71</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="K192">
+        <v>107.6</v>
+      </c>
+      <c r="L192" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M192">
+        <v>8.4</v>
+      </c>
+      <c r="N192" s="1">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="O192">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E193">
+        <v>119.9</v>
+      </c>
+      <c r="F193">
+        <v>20.2</v>
+      </c>
+      <c r="G193">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="I193">
+        <v>12.08</v>
+      </c>
+      <c r="J193" s="1">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="K193">
+        <v>111.5</v>
+      </c>
+      <c r="L193" s="2">
+        <v>21</v>
+      </c>
+      <c r="M193">
+        <v>8.4</v>
+      </c>
+      <c r="N193" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="O193">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194">
+        <v>21</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="E194">
+        <v>103.2</v>
+      </c>
+      <c r="F194">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G194">
+        <v>8.5</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="I194">
+        <v>1.71</v>
+      </c>
+      <c r="J194" s="1">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="K194">
+        <v>105.7</v>
+      </c>
+      <c r="L194" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M194">
+        <v>8.5</v>
+      </c>
+      <c r="N194" s="1">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="O194">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195">
+        <v>29</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="E195">
+        <v>112.6</v>
+      </c>
+      <c r="F195">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G195">
+        <v>8.5</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="I195">
+        <v>0.54</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="K195">
+        <v>128.1</v>
+      </c>
+      <c r="L195" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="M195">
+        <v>8.5</v>
+      </c>
+      <c r="N195" s="1">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="O195">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196">
+        <v>40</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E196">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196">
+        <v>8.4</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I196">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="K196">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L196" s="2">
+        <v>21</v>
+      </c>
+      <c r="M196">
+        <v>8.4</v>
+      </c>
+      <c r="N196" s="1">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="O196">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="E197">
+        <v>110.1</v>
+      </c>
+      <c r="F197">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G197">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="I197">
+        <v>12.46</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="K197">
+        <v>109.2</v>
+      </c>
+      <c r="L197" s="2">
+        <v>21</v>
+      </c>
+      <c r="M197">
+        <v>8.4</v>
+      </c>
+      <c r="N197" s="1">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="O197">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="E198">
+        <v>119.8</v>
+      </c>
+      <c r="F198">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G198">
+        <v>8.4</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I198">
+        <v>5.63</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="K198">
+        <v>114.5</v>
+      </c>
+      <c r="L198" s="2">
+        <v>21</v>
+      </c>
+      <c r="M198">
+        <v>8.4</v>
+      </c>
+      <c r="N198" s="1">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="O198">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="E199">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F199">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G199">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="I199">
+        <v>29.48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200">
+        <v>14</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E200">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="F200">
+        <v>20.3</v>
+      </c>
+      <c r="G200">
+        <v>8.4</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="I200">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201">
+        <v>17</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="E201">
+        <v>107.9</v>
+      </c>
+      <c r="F201">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G201">
+        <v>8.4</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="I201">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202">
+        <v>25</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="E202">
+        <v>103.8</v>
+      </c>
+      <c r="F202">
+        <v>20.2</v>
+      </c>
+      <c r="G202">
+        <v>8.4</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="I202">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203">
+        <v>33</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E203">
+        <v>111.6</v>
+      </c>
+      <c r="F203">
+        <v>20.2</v>
+      </c>
+      <c r="G203">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="I203">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0.34375</v>
+      </c>
+      <c r="E204">
+        <v>-0.151</v>
+      </c>
+      <c r="F204">
+        <v>20</v>
+      </c>
+      <c r="G204">
+        <v>8.4</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I204">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205">
+        <v>22</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="E205">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="F205">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G205">
+        <v>8.5</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="I205">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206">
+        <v>26</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="E206">
+        <v>86.11</v>
+      </c>
+      <c r="F206">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G206">
+        <v>8.4</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I206">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207">
+        <v>34</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E207">
+        <v>102</v>
+      </c>
+      <c r="F207">
+        <v>20.2</v>
+      </c>
+      <c r="G207">
+        <v>8.4</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I207">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="E208">
+        <v>100.7</v>
+      </c>
+      <c r="F208">
+        <v>19.8</v>
+      </c>
+      <c r="G208">
+        <v>83</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="I208">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209">
+        <v>23</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E209">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F209">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G209">
+        <v>8.5</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="I209">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210">
+        <v>30</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="E210">
+        <v>-0.245</v>
+      </c>
+      <c r="F210">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G210">
+        <v>8.4</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="I210">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211">
+        <v>35</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="E211">
+        <v>99.69</v>
+      </c>
+      <c r="F211">
+        <v>20.2</v>
+      </c>
+      <c r="G211">
+        <v>8.4</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="I211">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="E212">
+        <v>95.71</v>
+      </c>
+      <c r="F212">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G212">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="I212">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="E213">
+        <v>88.2</v>
+      </c>
+      <c r="F213">
+        <v>20.2</v>
+      </c>
+      <c r="G213">
+        <v>8.4</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I213">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214">
+        <v>31</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E214">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="F214">
+        <v>20.2</v>
+      </c>
+      <c r="G214">
+        <v>8.4</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="I214">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215">
+        <v>38</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="E215">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="F215">
+        <v>20.2</v>
+      </c>
+      <c r="G215">
+        <v>8.4</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="I215">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E216">
+        <v>95.05</v>
+      </c>
+      <c r="F216">
+        <v>20.2</v>
+      </c>
+      <c r="G216">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="I216">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="E217">
+        <v>91.82</v>
+      </c>
+      <c r="F217">
+        <v>20.3</v>
+      </c>
+      <c r="G217">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="I217">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218">
+        <v>18</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E218">
+        <v>101.8</v>
+      </c>
+      <c r="F218">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G218">
+        <v>8.4</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="I218">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219">
+        <v>39</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E219">
+        <v>-0.1</v>
+      </c>
+      <c r="F219">
+        <v>20.3</v>
+      </c>
+      <c r="G219">
+        <v>8.4</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I219">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220">
+        <v>7</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E220">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="F220">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G220">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="I220">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221">
+        <v>11</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E221">
+        <v>103.9</v>
+      </c>
+      <c r="F221">
+        <v>20.5</v>
+      </c>
+      <c r="G221">
+        <v>8.4</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="I221">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E222">
+        <v>98.52</v>
+      </c>
+      <c r="F222">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G222">
+        <v>8.4</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I222">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223">
+        <v>27</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="E223">
+        <v>91.03</v>
+      </c>
+      <c r="F223">
+        <v>20.3</v>
+      </c>
+      <c r="G223">
+        <v>8.4</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I223">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224">
+        <v>8</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="E224">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F224">
+        <v>20.2</v>
+      </c>
+      <c r="G224">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="I224">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <v>16</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="E225">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="F225">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G225">
+        <v>8.4</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="I225">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226">
+        <v>20</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="E226">
+        <v>99.27</v>
+      </c>
+      <c r="F226">
+        <v>20.6</v>
+      </c>
+      <c r="G226">
+        <v>8.4</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="I226">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227">
+        <v>38</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E227">
+        <v>103.3</v>
+      </c>
+      <c r="F227">
+        <v>20.6</v>
+      </c>
+      <c r="G227">
+        <v>8.4</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="I227">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E228">
+        <v>110.6</v>
+      </c>
+      <c r="F228">
+        <v>20.7</v>
+      </c>
+      <c r="G228">
+        <v>8.4</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="I228">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="E229">
+        <v>54.93</v>
+      </c>
+      <c r="F229">
+        <v>20.5</v>
+      </c>
+      <c r="G229">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="I229">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230">
+        <v>24</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E230">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F230">
+        <v>20</v>
+      </c>
+      <c r="G230">
+        <v>8.4</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="I230">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231">
+        <v>32</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="E231">
+        <v>-0.184</v>
+      </c>
+      <c r="F231">
+        <v>20.2</v>
+      </c>
+      <c r="G231">
+        <v>8.4</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="I231">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>37</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="E232">
+        <v>89.47</v>
+      </c>
+      <c r="F232">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G232">
+        <v>8.4</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="I232">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="E233">
+        <v>119.2</v>
+      </c>
+      <c r="F233">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G233">
+        <v>8.4</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="I233">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234">
+        <v>21</v>
+      </c>
+      <c r="D234" s="1">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="E234">
+        <v>99.51</v>
+      </c>
+      <c r="F234">
+        <v>20</v>
+      </c>
+      <c r="G234">
+        <v>8.4</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="I234">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235">
+        <v>29</v>
+      </c>
+      <c r="D235" s="1">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="E235">
+        <v>111.9</v>
+      </c>
+      <c r="F235">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G235">
+        <v>8.5</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="I235">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236">
+        <v>40</v>
+      </c>
+      <c r="D236" s="1">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E236">
+        <v>0.79</v>
+      </c>
+      <c r="F236">
+        <v>20</v>
+      </c>
+      <c r="G236">
+        <v>8.4</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="I236">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="E237">
+        <v>108.6</v>
+      </c>
+      <c r="F237">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G237">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I237">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238">
+        <v>13</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E238">
+        <v>121.9</v>
+      </c>
+      <c r="F238">
+        <v>20.2</v>
+      </c>
+      <c r="G238">
+        <v>8.4</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="I238">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/Algae_Nh4.xlsx
+++ b/Algae_Nh4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8365a1eecae1c53e/Documents/GitHub/PreliminaryExperiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\PreliminaryExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1704" documentId="53A6332AF2EA3778FFAF18D3A7445B6AD0BA85AA" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{732B4F88-8BA2-4E1A-821B-06221E3A28D0}"/>
+  <xr:revisionPtr revIDLastSave="1705" documentId="53A6332AF2EA3778FFAF18D3A7445B6AD0BA85AA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7DB3E01A-2C77-425D-ADA5-AE4E636B9CC2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14010" xr2:uid="{CFC48802-49D4-42A1-B9E1-6D1AF5DD203D}"/>
   </bookViews>
@@ -432,13 +432,14 @@
   <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
